--- a/Financial Information/SATS LTD..xlsx
+++ b/Financial Information/SATS LTD..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtan848\Documents\Jeremy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Chia\Documents\GitHub\NLP-SustainabilityReports-FinancialPerformance\Financial Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDD558C-0E60-43E3-A3AC-B7278FD3DB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1B86A1-B316-4145-9A9B-5B765B137561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="-15375" windowWidth="14400" windowHeight="7365" firstSheet="8" xr2:uid="{A371404D-82CC-4104-B9D5-FABD4C38098E}"/>
+    <workbookView xWindow="2250" yWindow="2685" windowWidth="21600" windowHeight="10950" firstSheet="8" xr2:uid="{A371404D-82CC-4104-B9D5-FABD4C38098E}"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="1" r:id="rId1"/>
@@ -3143,18 +3143,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13B1B7E-C7AA-40E6-92D7-BEF2D5C4D98C}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3168,7 +3168,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3198,7 +3198,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>-4.9894999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>-2.5868000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>-4.0991</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0.75539999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3452,7 +3452,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>12.4053</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>-1.0424</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>-24.334</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>39</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>-14.9948</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>-11.267799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>-8.1370000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>-8.1370000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -3748,7 +3748,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>48</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>52</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>54</v>
       </c>
@@ -3905,18 +3905,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7C02AA-8213-4CD5-ABA0-B9212F7DDAF7}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3930,7 +3930,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>626</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3960,7 +3960,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>627</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>628</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>629</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>631</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>969.99699999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>633</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>634</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>636</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>382.26499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>638</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>130.44200000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>640</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>197.63300000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>642</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>644</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>646</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>648</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>650</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>269.78699999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>652</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>654</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>20.509</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>656</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>658</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>652</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>661</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>662</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>664</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>-36.152000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>666</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>668</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>-145.44900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>670</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>20.509</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>672</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>674</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>675</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>-30.367999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>677</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>679</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>681</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>683</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>685</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>-109.297</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>687</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>-78.929000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>689</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>690</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>691</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>-6.8819999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>693</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>695</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>697</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>699</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>701</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>-78.177999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>703</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>-32.170999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>705</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>-109.297</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>707</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>-1.052</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>709</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>-110.349</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>711</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>712</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>86.875</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>714</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>13.680999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>638</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>130.44200000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>717</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>642</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>664</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>-36.152000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>644</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>677</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>679</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1118.7292</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>681</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>683</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>1123.0197000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>726</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>8.7870000000000008</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>654</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>20.509</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>728</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>217.31700000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>631</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>969.99699999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>731</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>733</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>389.74900000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>735</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>737</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>739</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>11.215</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>741</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>-47.366999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>743</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>745</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>-23.9</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>747</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>749</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>751</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>753</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>755</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>757</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>759</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>761</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>763</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>765</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>767</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>769</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>658</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>771</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>773</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>11.601000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>775</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>777</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>779</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>781</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>783</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>785</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>787</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>789</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>791</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>793</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>795</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>797</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>799</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>801</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>803</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>805</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>807</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>809</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>811</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>813</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>815</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>8.7870000000000008</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>54</v>
       </c>
@@ -7911,18 +7911,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76DA146-693B-4040-913C-6EC4C8F192C4}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7936,7 +7936,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7966,7 +7966,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>57</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>58</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>-50.031500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>-65.006500000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>62</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>64</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>66</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>68</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>70</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>72</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8372,7 +8372,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>-24.9053</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>76</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>92.9756</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>78</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>-12.4796</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>80</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>2.7002000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>82</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>11.149100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>62.131700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>86</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>-24.354399999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>88</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>-12.240399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>90</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>20.849900000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>92</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>35.103299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>94</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>-5.9108999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>96</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>1.8955</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>98</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>-2.9176000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -8880,7 +8880,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>100</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>-46.783999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>102</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>-18.653199999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>104</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>65.864400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>106</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>-57.164900000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>108</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>110</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -9122,7 +9122,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>112</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>58</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>-10.595599999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>-15.845000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>62</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>64</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>66</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>68</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>70</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>72</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -9456,7 +9456,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>74</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>-5.4001999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>76</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>42.191000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>78</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>6.4801000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>80</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>7.9850000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>82</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>3.7313000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>84</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>16.087199999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>88</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>1.7916000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>90</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>7.7108999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>92</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>38.9437</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>94</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>1.6528</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>131</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>6.2781000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>98</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>0.54049999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -9926,7 +9926,7 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>100</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>-13.6349</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>104</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>106</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>-19.489799999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>108</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>110</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -10130,7 +10130,7 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>139</v>
       </c>
@@ -10146,7 +10146,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>58</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>-50.031500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>60</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>-65.006500000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>62</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>-104.46939999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>64</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>-146.88050000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>66</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>-147.33330000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>68</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>-147.33330000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>70</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>-109.2413</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>72</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -10464,7 +10464,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>74</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>-24.9053</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>76</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>92.9756</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>78</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>-12.4796</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>80</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>2.7002000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>82</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>11.149100000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>84</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>62.131700000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>86</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>-24.354399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>88</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>-12.240399999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>90</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>20.849900000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>92</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>35.103299999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>94</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>-5.9108999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>96</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>1.8955</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>98</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>-2.9176000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -10972,7 +10972,7 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>100</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>-46.783999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>102</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>-18.653199999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>104</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>65.864400000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>106</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>-57.164900000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>108</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>110</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>54</v>
       </c>
@@ -11227,18 +11227,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED54965C-26CF-433C-85A6-EDB50FECD8A4}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11252,7 +11252,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>167</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -11282,7 +11282,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>168</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>1.5565</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>170</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>172</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>1.9159999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>174</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>0.2651</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>176</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>50.014000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -11558,7 +11558,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>178</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>24.375900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>180</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>18.2242</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>182</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>13.3933</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -11686,7 +11686,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>184</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>33.755200000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>186</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>25.236599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>188</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>18.546800000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -11814,7 +11814,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>190</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>10.720499999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>192</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>2.4268999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>194</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>3.4977</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -11942,7 +11942,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -11956,7 +11956,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>196</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>54</v>
       </c>
@@ -12021,18 +12021,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1E9804-F780-43C5-AB5C-A8E99E4C2BB6}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12046,7 +12046,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>198</v>
       </c>
@@ -12062,7 +12062,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12076,7 +12076,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>199</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>4.0941999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>201</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>89.1511</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>203</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>2.7326999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>205</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>133.56559999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>1.9522999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>209</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>186.95590000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -12390,7 +12390,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>211</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>35.760800000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>222.7167</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -12480,7 +12480,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>215</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>130.054</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>217</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>119.488</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>219</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>221</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>223</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>10.566000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>54</v>
       </c>
@@ -12697,18 +12697,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AFB8A1-3E78-42BD-86D8-0805DE5A3894}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12722,7 +12722,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>225</v>
       </c>
@@ -12738,7 +12738,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -12752,7 +12752,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>226</v>
       </c>
@@ -12840,7 +12840,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>227</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>54.265799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>229</v>
       </c>
@@ -12894,7 +12894,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>230</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>232</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>233</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>116.4151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
@@ -13002,7 +13002,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>235</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>-12.8805</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>237</v>
       </c>
@@ -13056,7 +13056,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>238</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>0.31790000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>240</v>
       </c>
@@ -13110,7 +13110,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>241</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>1.9288000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -13162,7 +13162,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>-1.0734999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -13214,7 +13214,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>245</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>11.6173</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>247</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>52</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>54</v>
       </c>
@@ -13355,18 +13355,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CE4233-5FD7-4E1A-BB91-1BCF686EF36B}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13380,7 +13380,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>248</v>
       </c>
@@ -13396,7 +13396,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -13410,7 +13410,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>249</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>47.4298</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -13534,7 +13534,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>251</v>
       </c>
@@ -13550,7 +13550,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>252</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>35.0045</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>254</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>256</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -13678,7 +13678,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>258</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>185.66800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>260</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -13768,7 +13768,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -13782,7 +13782,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>262</v>
       </c>
@@ -13798,7 +13798,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>263</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>23.548999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>265</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>11796</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>267</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>30.51</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -13926,7 +13926,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>269</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>271</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -14016,7 +14016,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>273</v>
       </c>
@@ -14032,7 +14032,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>274</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>83.594200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>276</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>278</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>280</v>
       </c>
@@ -14184,7 +14184,7 @@
         <v>90.909000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>282</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>284</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>286</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
@@ -14325,18 +14325,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32F43F-AD71-4D1F-BEB1-FCE5522E40E6}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14350,7 +14350,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>288</v>
       </c>
@@ -14366,7 +14366,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -14380,7 +14380,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>289</v>
       </c>
@@ -14468,7 +14468,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>249</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>47.4298</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>252</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>35.0045</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>263</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>23.548999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>274</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>83.594200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -14634,7 +14634,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>290</v>
       </c>
@@ -14650,7 +14650,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>291</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>21.104199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>293</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>34.444800000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>295</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>96.057699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -14778,7 +14778,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>297</v>
       </c>
@@ -14794,7 +14794,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>298</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>300</v>
       </c>
@@ -14870,7 +14870,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>302</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>256</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>304</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>306</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -15036,7 +15036,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>308</v>
       </c>
@@ -15052,7 +15052,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>309</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>191.4109</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>311</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>1542.9773</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>313</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>15.7399</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>315</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>60.051400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -15218,7 +15218,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>317</v>
       </c>
@@ -15234,7 +15234,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>318</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>320</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>322</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>324</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>326</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -15438,7 +15438,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>328</v>
       </c>
@@ -15454,7 +15454,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -15468,7 +15468,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>329</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -15498,7 +15498,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>262</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>330</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>19.074300000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>332</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>334</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>-6082.2223999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>336</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>11507.9756</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>338</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>29457.116399999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -15718,7 +15718,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>273</v>
       </c>
@@ -15734,7 +15734,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>340</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>90.909000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>342</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>90.909000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>343</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>36.363999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>345</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>11.111000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>347</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>348</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>350</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>352</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>354</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>356</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>358</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>54</v>
       </c>
@@ -16179,18 +16179,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EF76E6-53DC-44B5-B324-95D42E4ADC77}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16204,7 +16204,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>360</v>
       </c>
@@ -16220,7 +16220,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -16234,7 +16234,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
@@ -16322,7 +16322,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>361</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>879.84900000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>363</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>879.84900000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>365</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>367</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>203.22200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>369</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>203.22200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>371</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>373</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>375</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>130.054</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>376</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>119.488</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>377</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>378</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>379</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>10.566000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>380</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>109.63500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>382</v>
       </c>
@@ -16854,7 +16854,7 @@
         <v>20.146999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>384</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>386</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>388</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>89.488</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>390</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>1322.76</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>392</v>
       </c>
@@ -17044,7 +17044,7 @@
         <v>707.38699999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>394</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>1972.721</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>396</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>1265.3340000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>398</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>15.038</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>400</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>15.038</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>402</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>404</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>1046.633</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>406</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>410.67899999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>408</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>276.33800000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>410</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>134.34100000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>412</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>414</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>34.307000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>384</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>417</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>578.17899999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>419</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>23.468</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>421</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>1769.058</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>3091.8180000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -17666,7 +17666,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>424</v>
       </c>
@@ -17682,7 +17682,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>425</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>394.55200000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>427</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>159.18100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>429</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>36.029000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>431</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>199.34200000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>433</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>159.33699999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>435</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>143.29300000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>437</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>16.044</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>439</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>441</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>443</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>445</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>447</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>449</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>565.28899999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>451</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>414.09699999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>453</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>234.85</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>455</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>179.24700000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>457</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>459</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>413.63200000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>461</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>463</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>465</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>467</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>443</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>470</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>68.676000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>445</v>
       </c>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>473</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>344.95600000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>475</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>827.72900000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>477</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>1393.018</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>479</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>481</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>367.947</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>483</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>485</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>18.797999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>487</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>1362.4880000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>489</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>-165.29499999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>491</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>1546.3420000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>493</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>152.458</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>94</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>1698.8</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>496</v>
       </c>
@@ -19126,7 +19126,7 @@
         <v>3091.8180000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -19140,7 +19140,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>498</v>
       </c>
@@ -19156,7 +19156,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>499</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>502</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>1120.2283</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>504</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>3.8279999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>506</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>508</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>510</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>512</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>452788</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>514</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>516</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>518</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>-306.41500000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>520</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>-18.037099999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>522</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>42.357500000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>170</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>211</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>35.760800000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>265</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>12977</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>54</v>
       </c>
@@ -19753,18 +19753,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07311204-BC74-4874-A835-45E73F598DC0}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -19778,7 +19778,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>360</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -19808,7 +19808,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -19880,7 +19880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>526</v>
       </c>
@@ -19896,7 +19896,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>527</v>
       </c>
@@ -19932,7 +19932,7 @@
       </c>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>529</v>
       </c>
@@ -19968,7 +19968,7 @@
       </c>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>531</v>
       </c>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>533</v>
       </c>
@@ -20040,7 +20040,7 @@
       </c>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>535</v>
       </c>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>537</v>
       </c>
@@ -20112,7 +20112,7 @@
       </c>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>539</v>
       </c>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>541</v>
       </c>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>543</v>
       </c>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>545</v>
       </c>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>547</v>
       </c>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>526</v>
       </c>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -20342,7 +20342,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>550</v>
       </c>
@@ -20358,7 +20358,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>551</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>553</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>555</v>
       </c>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>557</v>
       </c>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>559</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>561</v>
       </c>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>563</v>
       </c>
@@ -20616,7 +20616,7 @@
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>565</v>
       </c>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>567</v>
       </c>
@@ -20688,7 +20688,7 @@
       </c>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>569</v>
       </c>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>571</v>
       </c>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>573</v>
       </c>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="L32" s="20"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>575</v>
       </c>
@@ -20832,7 +20832,7 @@
       </c>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>577</v>
       </c>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>579</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>547</v>
       </c>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>550</v>
       </c>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -20992,7 +20992,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>583</v>
       </c>
@@ -21008,7 +21008,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="19"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>584</v>
       </c>
@@ -21044,7 +21044,7 @@
       </c>
       <c r="L40" s="20"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>586</v>
       </c>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>588</v>
       </c>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>590</v>
       </c>
@@ -21152,7 +21152,7 @@
       </c>
       <c r="L43" s="20"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>592</v>
       </c>
@@ -21188,7 +21188,7 @@
       </c>
       <c r="L44" s="20"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>594</v>
       </c>
@@ -21224,7 +21224,7 @@
       </c>
       <c r="L45" s="20"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>596</v>
       </c>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>598</v>
       </c>
@@ -21296,7 +21296,7 @@
       </c>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>600</v>
       </c>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="L48" s="20"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>547</v>
       </c>
@@ -21368,7 +21368,7 @@
       </c>
       <c r="L49" s="20"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>583</v>
       </c>
@@ -21404,7 +21404,7 @@
       </c>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -21418,7 +21418,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="19"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>604</v>
       </c>
@@ -21454,7 +21454,7 @@
       </c>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -21468,7 +21468,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>606</v>
       </c>
@@ -21504,7 +21504,7 @@
       </c>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -21518,7 +21518,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="19"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>608</v>
       </c>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="L56" s="21"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>610</v>
       </c>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="L57" s="21"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -21604,7 +21604,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="19"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>498</v>
       </c>
@@ -21620,7 +21620,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="19"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>60</v>
       </c>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="L60" s="20"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>612</v>
       </c>
@@ -21692,7 +21692,7 @@
       </c>
       <c r="L61" s="23"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>614</v>
       </c>
@@ -21728,7 +21728,7 @@
       </c>
       <c r="L62" s="20"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>106</v>
       </c>
@@ -21764,7 +21764,7 @@
       </c>
       <c r="L63" s="20"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>110</v>
       </c>
@@ -21800,7 +21800,7 @@
       </c>
       <c r="L64" s="20"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>618</v>
       </c>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="L65" s="20"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>620</v>
       </c>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="L66" s="23"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>622</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>50.080120404438297</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>624</v>
       </c>
@@ -21946,7 +21946,7 @@
       </c>
       <c r="L68" s="23"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>54</v>
       </c>
